--- a/data_out/good_is_statistics.xlsx
+++ b/data_out/good_is_statistics.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,251 +442,268 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>销量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实收金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>利润</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>实收金额</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>收入</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>销量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>AGDH5500</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>845</v>
+      </c>
+      <c r="D2" t="n">
+        <v>122493</v>
+      </c>
+      <c r="E2" t="n">
+        <v>117581</v>
+      </c>
+      <c r="F2" t="n">
         <v>24266.68000000001</v>
       </c>
-      <c r="C2" t="n">
-        <v>122493</v>
-      </c>
-      <c r="D2" t="n">
-        <v>117581</v>
-      </c>
-      <c r="E2" t="n">
-        <v>845</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>AXTB3200</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>912</v>
+      </c>
+      <c r="D3" t="n">
+        <v>146397</v>
+      </c>
+      <c r="E3" t="n">
+        <v>141817</v>
+      </c>
+      <c r="F3" t="n">
         <v>26154.36000000003</v>
       </c>
-      <c r="C3" t="n">
-        <v>146397</v>
-      </c>
-      <c r="D3" t="n">
-        <v>141817</v>
-      </c>
-      <c r="E3" t="n">
-        <v>912</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>FLHR1800</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>933</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41007</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36535</v>
+      </c>
+      <c r="F4" t="n">
         <v>752.4600000000084</v>
       </c>
-      <c r="C4" t="n">
-        <v>41007</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36535</v>
-      </c>
-      <c r="E4" t="n">
-        <v>933</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>HWLA4700</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>934</v>
+      </c>
+      <c r="D5" t="n">
+        <v>48595</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45293</v>
+      </c>
+      <c r="F5" t="n">
         <v>3410.619999999998</v>
       </c>
-      <c r="C5" t="n">
-        <v>48595</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45293</v>
-      </c>
-      <c r="E5" t="n">
-        <v>934</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>LCHM9800</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>832</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72824</v>
+      </c>
+      <c r="E6" t="n">
+        <v>70044</v>
+      </c>
+      <c r="F6" t="n">
         <v>8066.199999999993</v>
       </c>
-      <c r="C6" t="n">
-        <v>72824</v>
-      </c>
-      <c r="D6" t="n">
-        <v>70044</v>
-      </c>
-      <c r="E6" t="n">
-        <v>832</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>PWDK9200</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>901</v>
+      </c>
+      <c r="D7" t="n">
+        <v>93051</v>
+      </c>
+      <c r="E7" t="n">
+        <v>87780</v>
+      </c>
+      <c r="F7" t="n">
         <v>12663.4</v>
       </c>
-      <c r="C7" t="n">
-        <v>93051</v>
-      </c>
-      <c r="D7" t="n">
-        <v>87780</v>
-      </c>
-      <c r="E7" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>QTVW5600</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>834</v>
+      </c>
+      <c r="D8" t="n">
+        <v>265818</v>
+      </c>
+      <c r="E8" t="n">
+        <v>238713</v>
+      </c>
+      <c r="F8" t="n">
+        <v>42625.83999999995</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UQNA9200</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>936</v>
+      </c>
+      <c r="D9" t="n">
+        <v>111707</v>
+      </c>
+      <c r="E9" t="n">
+        <v>106628</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18635.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VBOY1800</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>903</v>
+      </c>
+      <c r="D10" t="n">
+        <v>189643</v>
+      </c>
+      <c r="E10" t="n">
+        <v>181600</v>
+      </c>
+      <c r="F10" t="n">
+        <v>32958.20000000003</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>XDQV5600</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
         <v>901</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>QTVW5600</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>42625.83999999995</v>
-      </c>
-      <c r="C8" t="n">
-        <v>265818</v>
-      </c>
-      <c r="D8" t="n">
-        <v>238713</v>
-      </c>
-      <c r="E8" t="n">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>UQNA9200</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>18635.16</v>
-      </c>
-      <c r="C9" t="n">
-        <v>111707</v>
-      </c>
-      <c r="D9" t="n">
-        <v>106628</v>
-      </c>
-      <c r="E9" t="n">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>VBOY1800</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>32958.20000000003</v>
-      </c>
-      <c r="C10" t="n">
-        <v>189643</v>
-      </c>
-      <c r="D10" t="n">
-        <v>181600</v>
-      </c>
-      <c r="E10" t="n">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>XDQV5600</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="D11" t="n">
+        <v>84169</v>
+      </c>
+      <c r="E11" t="n">
+        <v>84766</v>
+      </c>
+      <c r="F11" t="n">
         <v>14059.64000000002</v>
       </c>
-      <c r="C11" t="n">
-        <v>84169</v>
-      </c>
-      <c r="D11" t="n">
-        <v>84766</v>
-      </c>
-      <c r="E11" t="n">
-        <v>901</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>XHQA3700</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>916</v>
+      </c>
+      <c r="D12" t="n">
+        <v>330151</v>
+      </c>
+      <c r="E12" t="n">
+        <v>311104</v>
+      </c>
+      <c r="F12" t="n">
         <v>65376.88</v>
       </c>
-      <c r="C12" t="n">
-        <v>330151</v>
-      </c>
-      <c r="D12" t="n">
-        <v>311104</v>
-      </c>
-      <c r="E12" t="n">
-        <v>916</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>YZFM1200</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>939</v>
+      </c>
+      <c r="D13" t="n">
+        <v>113368</v>
+      </c>
+      <c r="E13" t="n">
+        <v>111516</v>
+      </c>
+      <c r="F13" t="n">
         <v>20499.66000000001</v>
-      </c>
-      <c r="C13" t="n">
-        <v>113368</v>
-      </c>
-      <c r="D13" t="n">
-        <v>111516</v>
-      </c>
-      <c r="E13" t="n">
-        <v>939</v>
       </c>
     </row>
   </sheetData>
